--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H2">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N2">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q2">
-        <v>8.769511116456611</v>
+        <v>56.86314428935244</v>
       </c>
       <c r="R2">
-        <v>8.769511116456611</v>
+        <v>511.768298604172</v>
       </c>
       <c r="S2">
-        <v>0.01644476765485476</v>
+        <v>0.06802580777787269</v>
       </c>
       <c r="T2">
-        <v>0.01644476765485476</v>
+        <v>0.06802580777787269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H3">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N3">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q3">
-        <v>27.76513722726882</v>
+        <v>120.5816482440209</v>
       </c>
       <c r="R3">
-        <v>27.76513722726882</v>
+        <v>1085.234834196188</v>
       </c>
       <c r="S3">
-        <v>0.0520657565221359</v>
+        <v>0.144252733954474</v>
       </c>
       <c r="T3">
-        <v>0.0520657565221359</v>
+        <v>0.144252733954474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H4">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N4">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q4">
-        <v>38.25040459736862</v>
+        <v>164.8458229093506</v>
       </c>
       <c r="R4">
-        <v>38.25040459736862</v>
+        <v>1483.612406184156</v>
       </c>
       <c r="S4">
-        <v>0.07172794560092598</v>
+        <v>0.1972062994820442</v>
       </c>
       <c r="T4">
-        <v>0.07172794560092598</v>
+        <v>0.1972062994820442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H5">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N5">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q5">
-        <v>46.30409518568428</v>
+        <v>70.56686596727646</v>
       </c>
       <c r="R5">
-        <v>46.30409518568428</v>
+        <v>635.1017937054881</v>
       </c>
       <c r="S5">
-        <v>0.08683039187531479</v>
+        <v>0.08441967323069255</v>
       </c>
       <c r="T5">
-        <v>0.08683039187531479</v>
+        <v>0.08441967323069255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H6">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N6">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q6">
-        <v>146.6033328360172</v>
+        <v>149.6411975822169</v>
       </c>
       <c r="R6">
-        <v>146.6033328360172</v>
+        <v>1346.770778239952</v>
       </c>
       <c r="S6">
-        <v>0.2749135857062199</v>
+        <v>0.1790168916896255</v>
       </c>
       <c r="T6">
-        <v>0.2749135857062199</v>
+        <v>0.1790168916896255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H7">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N7">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q7">
-        <v>201.9668316565336</v>
+        <v>204.5728078510027</v>
       </c>
       <c r="R7">
-        <v>201.9668316565336</v>
+        <v>1841.155270659024</v>
       </c>
       <c r="S7">
-        <v>0.3787323576506116</v>
+        <v>0.2447319907713543</v>
       </c>
       <c r="T7">
-        <v>0.3787323576506116</v>
+        <v>0.2447319907713543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H8">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N8">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q8">
-        <v>7.459243138844296</v>
+        <v>11.43506743639622</v>
       </c>
       <c r="R8">
-        <v>7.459243138844296</v>
+        <v>102.915606927566</v>
       </c>
       <c r="S8">
-        <v>0.01398772618797112</v>
+        <v>0.01367985729732075</v>
       </c>
       <c r="T8">
-        <v>0.01398772618797112</v>
+        <v>0.01367985729732075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H9">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N9">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q9">
-        <v>23.61669956412102</v>
+        <v>24.24873433389045</v>
       </c>
       <c r="R9">
-        <v>23.61669956412102</v>
+        <v>218.238609005014</v>
       </c>
       <c r="S9">
-        <v>0.04428652087317318</v>
+        <v>0.0290089435128688</v>
       </c>
       <c r="T9">
-        <v>0.04428652087317318</v>
+        <v>0.0290089435128688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H10">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N10">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q10">
-        <v>32.53534481705813</v>
+        <v>33.15017354623533</v>
       </c>
       <c r="R10">
-        <v>32.53534481705813</v>
+        <v>298.351561916118</v>
       </c>
       <c r="S10">
-        <v>0.06101094792879281</v>
+        <v>0.03965780228374714</v>
       </c>
       <c r="T10">
-        <v>0.06101094792879281</v>
+        <v>0.03965780228374714</v>
       </c>
     </row>
   </sheetData>
